--- a/处理后的USB数据表格.xlsx
+++ b/处理后的USB数据表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byte\Documents\GitHub\data_processing_of_missing_hwdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AAD5B7-60FD-414D-B612-61AAA07E73B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC52152-DF84-46DA-B755-84A8E4D598AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="4488" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="1632" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="processed_usb_hwdata_feb20" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">processed_usb_hwdata_feb20!$A$1:$C$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1117,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB95A743-ED69-40D6-A6E7-17A6807E29A4}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
